--- a/OSATS_clean.xlsx
+++ b/OSATS_clean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,296 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C65K</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C85C</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>C85Q</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>D04V</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>D12Y</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>D16B</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>D17H</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>D35B</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>D39G</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>D44W</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>D51V</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>D59F</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>D65L</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>D82C</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>D94Z</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>E01L</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>E04A</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>E23G</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>E39Z</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>E45Q</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>E47O</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>E63M</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>E66F</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>E82Z</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>E86N</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>F03Z</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>F10I</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>F32Q</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>F36V</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
